--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/S100a8-Tlr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/S100a8-Tlr4.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1985.706367333333</v>
+        <v>0.07479333333333334</v>
       </c>
       <c r="H2">
-        <v>5957.119102000001</v>
+        <v>0.22438</v>
       </c>
       <c r="I2">
-        <v>0.9998048086715072</v>
+        <v>0.1617287198578621</v>
       </c>
       <c r="J2">
-        <v>0.9998048086715072</v>
+        <v>0.1617287198578621</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.48784766666667</v>
+        <v>1.949849666666667</v>
       </c>
       <c r="N2">
-        <v>67.463543</v>
+        <v>5.849549000000001</v>
       </c>
       <c r="O2">
-        <v>0.4520839499795984</v>
+        <v>0.06676506732104066</v>
       </c>
       <c r="P2">
-        <v>0.4520839499795983</v>
+        <v>0.06676506732104066</v>
       </c>
       <c r="Q2">
-        <v>44654.26229932204</v>
+        <v>0.1458357560688889</v>
       </c>
       <c r="R2">
-        <v>401888.3606938985</v>
+        <v>1.31252180462</v>
       </c>
       <c r="S2">
-        <v>0.4519957071128116</v>
+        <v>0.01079782886905589</v>
       </c>
       <c r="T2">
-        <v>0.4519957071128115</v>
+        <v>0.01079782886905589</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1985.706367333333</v>
+        <v>0.07479333333333334</v>
       </c>
       <c r="H3">
-        <v>5957.119102000001</v>
+        <v>0.22438</v>
       </c>
       <c r="I3">
-        <v>0.9998048086715072</v>
+        <v>0.1617287198578621</v>
       </c>
       <c r="J3">
-        <v>0.9998048086715072</v>
+        <v>0.1617287198578621</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>69.80431</v>
       </c>
       <c r="O3">
-        <v>0.4677698025791556</v>
+        <v>0.7967262871802238</v>
       </c>
       <c r="P3">
-        <v>0.4677698025791556</v>
+        <v>0.7967262871802239</v>
       </c>
       <c r="Q3">
-        <v>46203.62094476996</v>
+        <v>1.740299008644445</v>
       </c>
       <c r="R3">
-        <v>415832.5885029297</v>
+        <v>15.6626910778</v>
       </c>
       <c r="S3">
-        <v>0.4676784979699614</v>
+        <v>0.128853522502765</v>
       </c>
       <c r="T3">
-        <v>0.4676784979699614</v>
+        <v>0.128853522502765</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1985.706367333333</v>
+        <v>0.07479333333333334</v>
       </c>
       <c r="H4">
-        <v>5957.119102000001</v>
+        <v>0.22438</v>
       </c>
       <c r="I4">
-        <v>0.9998048086715072</v>
+        <v>0.1617287198578621</v>
       </c>
       <c r="J4">
-        <v>0.9998048086715072</v>
+        <v>0.1617287198578621</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>11.960057</v>
       </c>
       <c r="O4">
-        <v>0.08014624744124609</v>
+        <v>0.1365086454987356</v>
       </c>
       <c r="P4">
-        <v>0.08014624744124607</v>
+        <v>0.1365086454987356</v>
       </c>
       <c r="Q4">
-        <v>7916.387112856534</v>
+        <v>0.2981775099622222</v>
       </c>
       <c r="R4">
-        <v>71247.48401570882</v>
+        <v>2.68359758966</v>
       </c>
       <c r="S4">
-        <v>0.08013060358873432</v>
+        <v>0.02207736848604122</v>
       </c>
       <c r="T4">
-        <v>0.08013060358873431</v>
+        <v>0.02207736848604122</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.163005</v>
       </c>
       <c r="I5">
-        <v>0.0001951913284927648</v>
+        <v>0.8382712801421379</v>
       </c>
       <c r="J5">
-        <v>0.0001951913284927648</v>
+        <v>0.8382712801421379</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.48784766666667</v>
+        <v>1.949849666666667</v>
       </c>
       <c r="N5">
-        <v>67.463543</v>
+        <v>5.849549000000001</v>
       </c>
       <c r="O5">
-        <v>0.4520839499795984</v>
+        <v>0.06676506732104066</v>
       </c>
       <c r="P5">
-        <v>0.4520839499795983</v>
+        <v>0.06676506732104066</v>
       </c>
       <c r="Q5">
-        <v>8.717826425190555</v>
+        <v>0.7558949705272223</v>
       </c>
       <c r="R5">
-        <v>78.46043782671501</v>
+        <v>6.803054734745001</v>
       </c>
       <c r="S5">
-        <v>8.824286678677445E-05</v>
+        <v>0.05596723845198478</v>
       </c>
       <c r="T5">
-        <v>8.824286678677442E-05</v>
+        <v>0.05596723845198478</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.163005</v>
       </c>
       <c r="I6">
-        <v>0.0001951913284927648</v>
+        <v>0.8382712801421379</v>
       </c>
       <c r="J6">
-        <v>0.0001951913284927648</v>
+        <v>0.8382712801421379</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>69.80431</v>
       </c>
       <c r="O6">
-        <v>0.4677698025791556</v>
+        <v>0.7967262871802238</v>
       </c>
       <c r="P6">
-        <v>0.4677698025791556</v>
+        <v>0.7967262871802239</v>
       </c>
       <c r="Q6">
         <v>9.02030683906111</v>
@@ -818,10 +818,10 @@
         <v>81.18276155155</v>
       </c>
       <c r="S6">
-        <v>9.130460919422372E-05</v>
+        <v>0.6678727646774588</v>
       </c>
       <c r="T6">
-        <v>9.130460919422369E-05</v>
+        <v>0.6678727646774588</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.163005</v>
       </c>
       <c r="I7">
-        <v>0.0001951913284927648</v>
+        <v>0.8382712801421379</v>
       </c>
       <c r="J7">
-        <v>0.0001951913284927648</v>
+        <v>0.8382712801421379</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>11.960057</v>
       </c>
       <c r="O7">
-        <v>0.08014624744124609</v>
+        <v>0.1365086454987356</v>
       </c>
       <c r="P7">
-        <v>0.08014624744124607</v>
+        <v>0.1365086454987356</v>
       </c>
       <c r="Q7">
         <v>1.545511787920556</v>
@@ -880,10 +880,10 @@
         <v>13.909606091285</v>
       </c>
       <c r="S7">
-        <v>1.564385251176668E-05</v>
+        <v>0.1144312770126944</v>
       </c>
       <c r="T7">
-        <v>1.564385251176667E-05</v>
+        <v>0.1144312770126944</v>
       </c>
     </row>
   </sheetData>
